--- a/Tasa/Caidas tasa.xlsx
+++ b/Tasa/Caidas tasa.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gmsmanagementsolutions-my.sharepoint.com/personal/agustin_ferrer_managementsolutions_com/Documents/Microsoft Teams Chat Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathias.ezequiel.va1\Desktop\Banco Galicia - Capital Economico\GitKrakenRepos\bg-ce-22\Tasa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{913A0C7A-304E-46F8-BC39-67AACE6734A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{740345A5-823E-442D-8DDC-637CC338EADB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002B6DE2-56F8-463B-BF35-31CBB5479EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A9980E97-EFCA-46E7-B3DB-0A30FE0B6864}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A9980E97-EFCA-46E7-B3DB-0A30FE0B6864}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$IX$277</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,12 +50,6 @@
   </si>
   <si>
     <t>Caja</t>
-  </si>
-  <si>
-    <t>ARS</t>
-  </si>
-  <si>
-    <t>Activo</t>
   </si>
   <si>
     <t>Cuenta Garantía BCRA</t>
@@ -337,13 +334,7 @@
     <t>Otras Financiaciones</t>
   </si>
   <si>
-    <t>USD</t>
-  </si>
-  <si>
     <t>Cuentas Vista</t>
-  </si>
-  <si>
-    <t>Pasivo</t>
   </si>
   <si>
     <t>Cuentas Corrientes</t>
@@ -470,6 +461,18 @@
   </si>
   <si>
     <t>Call Cambios</t>
+  </si>
+  <si>
+    <t>Activa</t>
+  </si>
+  <si>
+    <t>Pasiva</t>
+  </si>
+  <si>
+    <t>Pesos</t>
+  </si>
+  <si>
+    <t>Dolares</t>
   </si>
 </sst>
 </file>
@@ -825,17 +828,17 @@
   <dimension ref="A1:IX277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:258" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1608,7 +1611,7 @@
         <v>7620</v>
       </c>
     </row>
-    <row r="2" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:258" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1616,106 +1619,106 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E2">
         <v>17435306.530000001</v>
       </c>
     </row>
-    <row r="3" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:258" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E3">
         <v>36478439.75</v>
       </c>
     </row>
-    <row r="4" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:258" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:258" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:258" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:258" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:258" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E6" s="1">
         <v>74.664169999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:258" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E7" s="1">
         <v>108.784098474567</v>
       </c>
     </row>
-    <row r="8" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:258" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E8" s="1">
         <v>523611.09295423201</v>
@@ -1775,32 +1778,32 @@
         <v>63865.832441056802</v>
       </c>
     </row>
-    <row r="9" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:258" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:258" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:258" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E10" s="1">
         <v>88087.1616710331</v>
@@ -1944,18 +1947,18 @@
         <v>24775.7878212</v>
       </c>
     </row>
-    <row r="11" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:258" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E11">
         <v>394639.17</v>
@@ -2168,35 +2171,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:258" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E12">
         <v>231022</v>
       </c>
     </row>
-    <row r="13" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:258" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E13" s="1">
         <v>1398857.9960028101</v>
@@ -2388,18 +2391,18 @@
         <v>12.7749741551527</v>
       </c>
     </row>
-    <row r="14" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:258" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E14" s="1">
         <v>68849.972380869993</v>
@@ -2582,18 +2585,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:258" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E15" s="1">
         <v>332168.93986080203</v>
@@ -2725,18 +2728,18 @@
         <v>848.11101302684006</v>
       </c>
     </row>
-    <row r="16" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:258" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E16" s="1">
         <v>3072877.2807342098</v>
@@ -2958,35 +2961,35 @@
         <v>386.42334440013599</v>
       </c>
     </row>
-    <row r="17" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:258" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E17" s="1">
         <v>20808.9006892654</v>
       </c>
     </row>
-    <row r="18" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:258" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E18" s="1">
         <v>1562.7649647600001</v>
@@ -3148,18 +3151,18 @@
         <v>3.3887700000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:258" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E19">
         <v>256711</v>
@@ -3402,18 +3405,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:258" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E20" s="1">
         <v>2459132.1248238198</v>
@@ -3434,18 +3437,18 @@
         <v>27563.928763276301</v>
       </c>
     </row>
-    <row r="21" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:258" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E21" s="1">
         <v>51825.956419490903</v>
@@ -3484,18 +3487,18 @@
         <v>3940.2524108416201</v>
       </c>
     </row>
-    <row r="22" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:258" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E22" s="1">
         <v>1445475.83384161</v>
@@ -3510,32 +3513,32 @@
         <v>48495.869658067997</v>
       </c>
     </row>
-    <row r="23" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:258" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:258" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:258" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E24" s="1">
         <v>2094.8806323511199</v>
@@ -3784,18 +3787,18 @@
         <v>0.29001062866495098</v>
       </c>
     </row>
-    <row r="25" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:258" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E25" s="1">
         <v>1223.7994770743001</v>
@@ -4194,18 +4197,18 @@
         <v>67.191121473468598</v>
       </c>
     </row>
-    <row r="26" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:258" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E26" s="1">
         <v>983.10700659999998</v>
@@ -4445,18 +4448,18 @@
         <v>4940</v>
       </c>
     </row>
-    <row r="27" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:258" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E27" s="1">
         <v>1735.8176111099999</v>
@@ -4924,18 +4927,18 @@
         <v>96.869557499999999</v>
       </c>
     </row>
-    <row r="28" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:258" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E28" s="1">
         <v>79020.776463747694</v>
@@ -5700,35 +5703,35 @@
         <v>134916.26779583201</v>
       </c>
     </row>
-    <row r="29" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:258" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E29" s="1">
         <v>145.643131600147</v>
       </c>
     </row>
-    <row r="30" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:258" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E30" s="1">
         <v>30053.3052656664</v>
@@ -5884,18 +5887,18 @@
         <v>174.45462529280201</v>
       </c>
     </row>
-    <row r="31" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:258" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D31" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E31" s="1">
         <v>815.78933808214902</v>
@@ -6021,18 +6024,18 @@
         <v>310.98388794746899</v>
       </c>
     </row>
-    <row r="32" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:258" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D32" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E32" s="1">
         <v>6211.5682684430303</v>
@@ -6188,18 +6191,18 @@
         <v>64.207090350178106</v>
       </c>
     </row>
-    <row r="33" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D33" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E33" s="1">
         <v>1168.6818911702201</v>
@@ -6250,18 +6253,18 @@
         <v>150.51245859212401</v>
       </c>
     </row>
-    <row r="34" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D34" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E34" s="1">
         <v>19892694.929067802</v>
@@ -6351,35 +6354,35 @@
         <v>2742.91072442526</v>
       </c>
     </row>
-    <row r="35" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D35" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E35">
         <v>60758852</v>
       </c>
     </row>
-    <row r="36" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D36" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E36" s="1">
         <v>12505342.165719099</v>
@@ -6421,18 +6424,18 @@
         <v>372788.05865789199</v>
       </c>
     </row>
-    <row r="37" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D37" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E37" s="1">
         <v>9716336.7077796496</v>
@@ -6474,49 +6477,49 @@
         <v>29332.498744209799</v>
       </c>
     </row>
-    <row r="38" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:93" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D39" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E39">
         <v>412680</v>
       </c>
     </row>
-    <row r="40" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D40" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E40" s="1">
         <v>10404811.0395661</v>
@@ -6525,18 +6528,18 @@
         <v>2664905.2785356799</v>
       </c>
     </row>
-    <row r="41" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D41" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E41" s="1">
         <v>1963968.9149154599</v>
@@ -6575,18 +6578,18 @@
         <v>497580.500000467</v>
       </c>
     </row>
-    <row r="42" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D42" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E42" s="1">
         <v>8879.0188600000001</v>
@@ -6604,18 +6607,18 @@
         <v>72.258799999999994</v>
       </c>
     </row>
-    <row r="43" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D43" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E43" s="1">
         <v>2062963.5603616999</v>
@@ -6726,18 +6729,18 @@
         <v>3741.1547932035701</v>
       </c>
     </row>
-    <row r="44" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D44" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E44" s="1">
         <v>220015.68578</v>
@@ -6821,18 +6824,18 @@
         <v>946550</v>
       </c>
     </row>
-    <row r="45" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D45" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E45" s="1">
         <v>100791.676228841</v>
@@ -7048,18 +7051,18 @@
         <v>1218.11976310053</v>
       </c>
     </row>
-    <row r="46" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D46" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E46" s="1">
         <v>17135.74423</v>
@@ -7200,18 +7203,18 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="47" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D47" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E47" s="1">
         <v>1310223.7859423901</v>
@@ -7367,35 +7370,35 @@
         <v>174992.67565869601</v>
       </c>
     </row>
-    <row r="48" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D48" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="AI48" s="1">
         <v>249999.99981000001</v>
       </c>
     </row>
-    <row r="49" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D49" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E49" s="1">
         <v>5364495.9132842002</v>
@@ -7416,18 +7419,18 @@
         <v>104767.510701377</v>
       </c>
     </row>
-    <row r="50" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D50" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E50" s="1">
         <v>44566.002754653702</v>
@@ -7466,18 +7469,18 @@
         <v>964.51652505051402</v>
       </c>
     </row>
-    <row r="51" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D51" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E51" s="1">
         <v>5305306.1438193498</v>
@@ -7492,32 +7495,32 @@
         <v>416128.18816764298</v>
       </c>
     </row>
-    <row r="52" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D52" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:86" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D53" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E53" s="1">
         <v>8725.0398339789899</v>
@@ -7766,18 +7769,18 @@
         <v>1960.7029370579201</v>
       </c>
     </row>
-    <row r="54" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D54" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E54" s="1">
         <v>4344.8912799999998</v>
@@ -7975,32 +7978,32 @@
         <v>304.80464000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D55" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:86" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D56" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E56" s="1">
         <v>3315.1972134028101</v>
@@ -8048,46 +8051,46 @@
         <v>57.648299410703501</v>
       </c>
     </row>
-    <row r="57" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D57" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:86" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D58" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:86" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D59" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E59" s="1">
         <v>326649.17417821899</v>
@@ -8249,18 +8252,18 @@
         <v>397638.93904221401</v>
       </c>
     </row>
-    <row r="60" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D60" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E60" s="1">
         <v>1471.95442</v>
@@ -8308,18 +8311,18 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="61" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D61" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E61" s="1">
         <v>32210.155992647102</v>
@@ -8433,18 +8436,18 @@
         <v>261.53490045648903</v>
       </c>
     </row>
-    <row r="62" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D62" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E62" s="1">
         <v>22488.497567070699</v>
@@ -8558,18 +8561,18 @@
         <v>218157.630872396</v>
       </c>
     </row>
-    <row r="63" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D63" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E63" s="1">
         <v>19187.361570000001</v>
@@ -8713,18 +8716,18 @@
         <v>4830</v>
       </c>
     </row>
-    <row r="64" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D64" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="F64" s="1">
         <v>702.86061058453902</v>
@@ -8769,18 +8772,18 @@
         <v>922.032367760483</v>
       </c>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D65" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E65" s="1">
         <v>66842.812623864898</v>
@@ -8891,288 +8894,288 @@
         <v>89822.539118166897</v>
       </c>
     </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D66" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D67" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D68" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="M68" s="1">
         <v>25498690.774711799</v>
       </c>
     </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D69" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D70" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D71" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D72" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="AK72" s="1">
         <v>683026.43530145101</v>
       </c>
     </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D73" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D74" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D75" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D76" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D77" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D78" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D79" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E79">
         <v>6300163.3600000003</v>
       </c>
     </row>
-    <row r="80" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D80" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E80">
         <v>-42143343.960000001</v>
       </c>
     </row>
-    <row r="81" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D81" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E81">
         <v>-2073264.67</v>
       </c>
     </row>
-    <row r="82" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D82" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:68" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D83" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E83">
         <v>-264333</v>
       </c>
     </row>
-    <row r="84" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D84" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="AF84" s="1">
         <v>3223.93142846004</v>
@@ -9181,18 +9184,18 @@
         <v>8294.1464153111792</v>
       </c>
     </row>
-    <row r="85" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D85" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E85" s="1">
         <v>669778.81469999999</v>
@@ -9387,179 +9390,179 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D86" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:68" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D87" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E87">
         <v>15398.15</v>
       </c>
     </row>
-    <row r="88" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D88" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:68" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D89" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:68" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D90" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E90" s="1">
         <v>111948412.73370001</v>
       </c>
     </row>
-    <row r="91" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D91" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:68" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D92" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E92" s="1">
         <v>17516099.378201298</v>
       </c>
     </row>
-    <row r="93" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D93" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:68" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D94" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E94">
         <v>18884998.010000002</v>
       </c>
     </row>
-    <row r="95" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D95" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E95" s="1">
         <v>206444098.47784299</v>
       </c>
     </row>
-    <row r="96" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D96" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E96">
         <v>1838874.19</v>
       </c>
     </row>
-    <row r="97" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -9567,173 +9570,173 @@
         <v>3</v>
       </c>
       <c r="C97" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D97" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E97">
         <v>396192.16</v>
       </c>
     </row>
-    <row r="98" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D98" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E98">
         <v>1622010.56</v>
       </c>
     </row>
-    <row r="99" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D99" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:48" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D100" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E100">
         <v>92022.39</v>
       </c>
     </row>
-    <row r="101" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D101" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:48" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="102" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D102" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:48" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="103" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D103" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:48" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C104" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D104" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:48" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C105" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D105" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:48" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D106" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:48" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="107" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C107" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D107" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:48" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C108" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D108" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="F108" s="1">
         <v>25.3227364240865</v>
@@ -9763,18 +9766,18 @@
         <v>33.150782097356398</v>
       </c>
     </row>
-    <row r="109" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C109" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D109" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="F109" s="1">
         <v>285.28570999999999</v>
@@ -9801,172 +9804,172 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C110" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D110" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:48" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="111" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C111" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D111" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:48" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="112" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C112" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D112" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="113" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C113" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D113" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="114" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C114" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D114" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="115" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C115" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D115" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="116" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C116" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D116" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="117" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C117" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D117" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="118" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C118" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D118" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="119" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C119" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D119" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="120" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C120" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D120" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="121" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C121" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D121" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="F121" s="1">
         <v>75.888890000000004</v>
@@ -9987,88 +9990,88 @@
         <v>75.88888</v>
       </c>
     </row>
-    <row r="122" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C122" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D122" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="123" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C123" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D123" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="124" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C124" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D124" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="125" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C125" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D125" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="126" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C126" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D126" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:36" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="127" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C127" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D127" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E127" s="1">
         <v>8.5177783879251692</v>
@@ -10149,136 +10152,136 @@
         <v>6.6499649656642097</v>
       </c>
     </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C128" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D128" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:49" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="129" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C129" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D129" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:49" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="130" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C130" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D130" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E130" s="1">
         <v>30545.744534083999</v>
       </c>
     </row>
-    <row r="131" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C131" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D131" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:49" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="132" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C132" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D132" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E132">
         <v>230.59</v>
       </c>
     </row>
-    <row r="133" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C133" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D133" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:49" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="134" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C134" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D134" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:49" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="135" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C135" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D135" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:49" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="136" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C136" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D136" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E136" s="1">
         <v>15495.1354745849</v>
@@ -10287,35 +10290,35 @@
         <v>1210.56472444311</v>
       </c>
     </row>
-    <row r="137" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C137" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D137" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E137" s="1">
         <v>21.428570000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C138" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D138" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E138" s="1">
         <v>70.945501442033901</v>
@@ -10357,18 +10360,18 @@
         <v>18.70832178125</v>
       </c>
     </row>
-    <row r="139" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C139" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D139" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="M139" s="1">
         <v>323.28572000000003</v>
@@ -10380,18 +10383,18 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="140" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C140" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D140" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E140" s="1">
         <v>169.58594402005201</v>
@@ -10529,18 +10532,18 @@
         <v>2.7717806048633702</v>
       </c>
     </row>
-    <row r="141" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C141" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D141" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E141" s="1">
         <v>7741.5757000000003</v>
@@ -10657,102 +10660,102 @@
         <v>45.454500000000003</v>
       </c>
     </row>
-    <row r="142" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C142" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D142" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="143" spans="1:49" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C143" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D143" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="144" spans="1:49" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C144" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D144" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:59" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="145" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C145" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D145" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="146" spans="1:59" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="146" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C146" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D146" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:59" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="147" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C147" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D147" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="148" spans="1:59" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="148" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C148" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D148" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E148" s="1">
         <v>812.92087834637596</v>
@@ -10872,18 +10875,18 @@
         <v>51.219429845984003</v>
       </c>
     </row>
-    <row r="149" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C149" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D149" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E149" s="1">
         <v>8.1360600000000005</v>
@@ -10913,74 +10916,74 @@
         <v>50.35134</v>
       </c>
     </row>
-    <row r="150" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C150" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D150" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:59" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="151" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C151" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D151" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="152" spans="1:59" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="152" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C152" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D152" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:59" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="153" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C153" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D153" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:59" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="154" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C154" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D154" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E154" s="1">
         <v>16.179881174805299</v>
@@ -11067,18 +11070,18 @@
         <v>4533.6994125797401</v>
       </c>
     </row>
-    <row r="155" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C155" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D155" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="F155" s="1">
         <v>175.13571999999999</v>
@@ -11093,32 +11096,32 @@
         <v>20.528569999999998</v>
       </c>
     </row>
-    <row r="156" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C156" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D156" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="157" spans="1:59" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="157" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C157" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D157" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E157" s="1">
         <v>686.85329803617105</v>
@@ -11286,18 +11289,18 @@
         <v>124.774718720419</v>
       </c>
     </row>
-    <row r="158" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C158" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D158" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E158" s="1">
         <v>599.41893000000005</v>
@@ -11435,147 +11438,147 @@
         <v>9.8360699999999994</v>
       </c>
     </row>
-    <row r="159" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C159" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D159" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="160" spans="1:59" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="160" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C160" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D160" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="161" spans="1:66" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="161" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C161" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D161" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="162" spans="1:66" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="162" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C162" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D162" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="163" spans="1:66" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="163" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C163" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D163" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="164" spans="1:66" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="164" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C164" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D164" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="165" spans="1:66" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="165" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C165" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D165" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="166" spans="1:66" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="166" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C166" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D166" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="167" spans="1:66" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="167" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C167" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D167" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="AK167" s="1">
         <v>37621.792935767502</v>
       </c>
     </row>
-    <row r="168" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C168" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D168" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E168" s="1">
         <v>18483.444505118699</v>
@@ -11728,18 +11731,18 @@
         <v>2415.6323258004099</v>
       </c>
     </row>
-    <row r="169" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C169" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D169" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E169" s="1">
         <v>253.12153610428399</v>
@@ -11856,18 +11859,18 @@
         <v>23.7580118819583</v>
       </c>
     </row>
-    <row r="170" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C170" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D170" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E170" s="1">
         <v>846.79440990109697</v>
@@ -11888,139 +11891,139 @@
         <v>195.368512173233</v>
       </c>
     </row>
-    <row r="171" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C171" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D171" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="172" spans="1:66" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="172" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C172" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D172" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="173" spans="1:66" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="173" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C173" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D173" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="174" spans="1:66" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="174" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C174" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D174" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E174">
         <v>1992.97</v>
       </c>
     </row>
-    <row r="175" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C175" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D175" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E175">
         <v>-12161.49</v>
       </c>
     </row>
-    <row r="176" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C176" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D176" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="177" spans="1:54" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="177" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C177" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D177" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="178" spans="1:54" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="178" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C178" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D178" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E178">
         <v>1580.66</v>
       </c>
     </row>
-    <row r="179" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C179" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D179" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E179" s="1">
         <v>63.688982841524599</v>
@@ -12059,288 +12062,288 @@
         <v>209.19479152863701</v>
       </c>
     </row>
-    <row r="180" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C180" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D180" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="181" spans="1:54" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="181" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C181" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D181" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="182" spans="1:54" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="182" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C182" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D182" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E182">
         <v>524.57000000000005</v>
       </c>
     </row>
-    <row r="183" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C183" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D183" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="184" spans="1:54" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="184" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C184" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D184" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="185" spans="1:54" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="185" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C185" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D185" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="186" spans="1:54" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="186" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C186" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D186" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="187" spans="1:54" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="187" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C187" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D187" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E187" s="1">
         <v>11058.281706674999</v>
       </c>
     </row>
-    <row r="188" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C188" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D188" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="189" spans="1:54" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="189" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C189" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D189" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="190" spans="1:54" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="190" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C190" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D190" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="191" spans="1:54" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="191" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C191" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D191" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="192" spans="1:54" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="192" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C192" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D192" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E192">
         <v>745708.92</v>
       </c>
     </row>
-    <row r="193" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C193" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D193" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E193">
         <v>196539023.27000001</v>
       </c>
     </row>
-    <row r="194" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C194" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D194" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="195" spans="1:86" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="195" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C195" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D195" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E195" s="1">
         <v>90930543.789942995</v>
       </c>
     </row>
-    <row r="196" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C196" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D196" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E196">
         <v>109355118.3</v>
       </c>
     </row>
-    <row r="197" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C197" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D197" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="198" spans="1:86" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="198" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C198" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D198" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E198" s="1">
         <v>122245817.704978</v>
@@ -12355,18 +12358,18 @@
         <v>36481.148250872502</v>
       </c>
     </row>
-    <row r="199" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C199" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D199" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E199" s="1">
         <v>271091.92607516702</v>
@@ -12390,49 +12393,49 @@
         <v>2365.5140377236498</v>
       </c>
     </row>
-    <row r="200" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C200" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D200" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E200" s="1">
         <v>1637135.3142087299</v>
       </c>
     </row>
-    <row r="201" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C201" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D201" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="202" spans="1:86" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="202" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C202" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D202" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E202" s="1">
         <v>171537592.615338</v>
@@ -12453,18 +12456,18 @@
         <v>150970.59796567101</v>
       </c>
     </row>
-    <row r="203" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C203" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D203" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E203" s="1">
         <v>250300.894825364</v>
@@ -12521,32 +12524,32 @@
         <v>88.118772235814504</v>
       </c>
     </row>
-    <row r="204" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C204" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D204" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="205" spans="1:86" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="205" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C205" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D205" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E205" s="1">
         <v>5898937.6510100001</v>
@@ -12645,108 +12648,108 @@
         <v>0.11817</v>
       </c>
     </row>
-    <row r="206" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C206" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D206" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="207" spans="1:86" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="207" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C207" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D207" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E207">
         <v>798470.75</v>
       </c>
     </row>
-    <row r="208" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C208" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D208" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="209" spans="1:45" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="209" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C209" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D209" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="210" spans="1:45" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="210" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C210" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D210" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="211" spans="1:45" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="211" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C211" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D211" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E211">
         <v>35098379.649999999</v>
       </c>
     </row>
-    <row r="212" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C212" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D212" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E212" s="1">
         <v>15989.647000000001</v>
@@ -12833,60 +12836,60 @@
         <v>6944.4447600000003</v>
       </c>
     </row>
-    <row r="213" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C213" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D213" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="214" spans="1:45" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="214" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C214" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D214" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="215" spans="1:45" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="215" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C215" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D215" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="216" spans="1:45" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="216" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C216" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D216" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E216" s="1">
         <v>2120.97576799225</v>
@@ -13000,184 +13003,184 @@
         <v>16.950048688194499</v>
       </c>
     </row>
-    <row r="217" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C217" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D217" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="218" spans="1:45" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="218" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C218" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D218" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E218">
         <v>2152</v>
       </c>
     </row>
-    <row r="219" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C219" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D219" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="220" spans="1:45" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="220" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C220" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D220" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E220">
         <v>13612504.439999999</v>
       </c>
     </row>
-    <row r="221" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C221" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D221" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="222" spans="1:45" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="222" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C222" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D222" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="223" spans="1:45" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="223" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C223" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D223" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="N223" s="1">
         <v>1625968.2749999999</v>
       </c>
     </row>
-    <row r="224" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C224" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D224" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="K224">
         <v>1349672</v>
       </c>
     </row>
-    <row r="225" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C225" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D225" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="226" spans="1:102" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="226" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C226" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D226" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="227" spans="1:102" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="227" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C227" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D227" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="228" spans="1:102" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="228" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C228" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D228" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E228" s="1">
         <v>6131.9705797148599</v>
@@ -13474,204 +13477,204 @@
         <v>4034.3155869560101</v>
       </c>
     </row>
-    <row r="229" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C229" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D229" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E229">
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C230" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D230" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E230" s="1">
         <v>132873.57857717</v>
       </c>
     </row>
-    <row r="231" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C231" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D231" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E231">
         <v>13397667.01</v>
       </c>
     </row>
-    <row r="232" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>230</v>
       </c>
       <c r="B232" t="s">
+        <v>138</v>
+      </c>
+      <c r="C232" t="s">
+        <v>143</v>
+      </c>
+      <c r="D232" t="s">
         <v>142</v>
       </c>
-      <c r="C232" t="s">
-        <v>4</v>
-      </c>
-      <c r="D232" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="233" spans="1:102" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>231</v>
       </c>
       <c r="B233" t="s">
+        <v>139</v>
+      </c>
+      <c r="C233" t="s">
         <v>143</v>
       </c>
-      <c r="C233" t="s">
-        <v>4</v>
-      </c>
       <c r="D233" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="234" spans="1:102" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="234" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C234" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D234" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="235" spans="1:102" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="235" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C235" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D235" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E235">
         <v>74667.360000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C236" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D236" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E236">
         <v>426429.09</v>
       </c>
     </row>
-    <row r="237" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C237" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D237" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="238" spans="1:102" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="238" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C238" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D238" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="239" spans="1:102" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="239" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C239" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D239" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E239">
         <v>1150882.1499999999</v>
       </c>
     </row>
-    <row r="240" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C240" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D240" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="241" spans="1:38" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="241" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C241" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D241" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E241" s="1">
         <v>6579.85051499989</v>
@@ -13683,18 +13686,18 @@
         <v>1393.11515240885</v>
       </c>
     </row>
-    <row r="242" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C242" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D242" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E242" s="1">
         <v>696.94952699962801</v>
@@ -13718,46 +13721,46 @@
         <v>1312.1092253157001</v>
       </c>
     </row>
-    <row r="243" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C243" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D243" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="244" spans="1:38" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="244" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C244" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D244" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="245" spans="1:38" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="245" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C245" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D245" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E245" s="1">
         <v>181139.908464657</v>
@@ -13778,18 +13781,18 @@
         <v>2296.1779391738401</v>
       </c>
     </row>
-    <row r="246" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C246" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D246" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E246" s="1">
         <v>9645.5619358204003</v>
@@ -13861,74 +13864,74 @@
         <v>6.5646853223086898</v>
       </c>
     </row>
-    <row r="247" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C247" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D247" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="248" spans="1:38" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="248" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C248" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D248" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="249" spans="1:38" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="249" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C249" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D249" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="250" spans="1:38" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="250" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C250" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D250" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="251" spans="1:38" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="251" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C251" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D251" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E251" s="1">
         <v>798.40260712139002</v>
@@ -13949,18 +13952,18 @@
         <v>193.66076112625399</v>
       </c>
     </row>
-    <row r="252" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C252" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D252" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E252">
         <v>591.55999999999995</v>
@@ -13972,46 +13975,46 @@
         <v>804</v>
       </c>
     </row>
-    <row r="253" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C253" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D253" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="254" spans="1:38" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="254" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C254" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D254" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="255" spans="1:38" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="255" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C255" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D255" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E255" s="1">
         <v>160.32596000000001</v>
@@ -14107,32 +14110,32 @@
         <v>225</v>
       </c>
     </row>
-    <row r="256" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C256" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D256" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="257" spans="1:198" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="257" spans="1:198" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C257" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D257" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="F257" s="1">
         <v>13333.33331</v>
@@ -14153,18 +14156,18 @@
         <v>3333.3334399999999</v>
       </c>
     </row>
-    <row r="258" spans="1:198" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:198" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C258" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D258" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="I258" s="1">
         <v>7469.8808358484002</v>
@@ -14188,74 +14191,74 @@
         <v>8766.4555909295304</v>
       </c>
     </row>
-    <row r="259" spans="1:198" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:198" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C259" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D259" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="260" spans="1:198" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="260" spans="1:198" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C260" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D260" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="261" spans="1:198" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="261" spans="1:198" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C261" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D261" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="262" spans="1:198" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="262" spans="1:198" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C262" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D262" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="263" spans="1:198" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="263" spans="1:198" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C263" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D263" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E263" s="1">
         <v>543.96700207142305</v>
@@ -14840,212 +14843,212 @@
         <v>42.090141690035701</v>
       </c>
     </row>
-    <row r="264" spans="1:198" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:198" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C264" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D264" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="265" spans="1:198" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="265" spans="1:198" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C265" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D265" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="266" spans="1:198" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="266" spans="1:198" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C266" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D266" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="267" spans="1:198" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="267" spans="1:198" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C267" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D267" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="268" spans="1:198" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="268" spans="1:198" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C268" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D268" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="BI268" s="1">
         <v>354994.00474007498</v>
       </c>
     </row>
-    <row r="269" spans="1:198" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:198" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C269" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D269" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="270" spans="1:198" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="270" spans="1:198" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C270" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D270" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="271" spans="1:198" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="271" spans="1:198" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C271" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D271" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="272" spans="1:198" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="272" spans="1:198" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C272" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D272" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E272">
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C273" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D273" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C274" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D274" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E274">
         <v>713.57</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>273</v>
       </c>
       <c r="B275" t="s">
+        <v>138</v>
+      </c>
+      <c r="C275" t="s">
+        <v>144</v>
+      </c>
+      <c r="D275" t="s">
         <v>142</v>
       </c>
-      <c r="C275" t="s">
-        <v>100</v>
-      </c>
-      <c r="D275" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C276" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D276" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E276">
         <v>98585.84</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>275</v>
       </c>
       <c r="B277" t="s">
+        <v>140</v>
+      </c>
+      <c r="C277" t="s">
         <v>144</v>
       </c>
-      <c r="C277" t="s">
-        <v>100</v>
-      </c>
       <c r="D277" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
